--- a/templates/classes/Range.xlsx
+++ b/templates/classes/Range.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coden\Python\text-to-speech\MTTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coden\Python\text-to-speech\TTS-Radio\templates\classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1E5321-F5A7-4B91-B219-021F81DF9393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80286643-6664-492A-903A-0A8D878972A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31932" yWindow="2040" windowWidth="28020" windowHeight="13548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30972" yWindow="1128" windowWidth="28020" windowHeight="13548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
   <si>
     <t>Text</t>
   </si>
@@ -183,9 +183,6 @@
     <t>RC-ExcellentHit</t>
   </si>
   <si>
-    <t>RC-ExcelletPass</t>
-  </si>
-  <si>
     <t>RC-Feet</t>
   </si>
   <si>
@@ -301,6 +298,15 @@
   </si>
   <si>
     <t>Click Out</t>
+  </si>
+  <si>
+    <t>en-GB-Wavenet-F</t>
+  </si>
+  <si>
+    <t>en-US-Wavenet-J</t>
+  </si>
+  <si>
+    <t>RC-ExcellentPass</t>
   </si>
 </sst>
 </file>
@@ -635,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,7 +650,7 @@
     <col min="1" max="1" width="72.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
@@ -672,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -690,10 +696,10 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -703,6 +709,9 @@
       <c r="B2" t="s">
         <v>21</v>
       </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -711,6 +720,9 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -719,6 +731,9 @@
       <c r="B4" t="s">
         <v>23</v>
       </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -727,6 +742,9 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -735,6 +753,9 @@
       <c r="B6" t="s">
         <v>25</v>
       </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -743,6 +764,9 @@
       <c r="B7" t="s">
         <v>26</v>
       </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -751,6 +775,9 @@
       <c r="B8" t="s">
         <v>27</v>
       </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -759,6 +786,9 @@
       <c r="B9" t="s">
         <v>28</v>
       </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -767,6 +797,9 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -775,6 +808,9 @@
       <c r="B11" t="s">
         <v>30</v>
       </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -783,6 +819,9 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -791,6 +830,9 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -799,6 +841,9 @@
       <c r="B14" t="s">
         <v>36</v>
       </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -807,6 +852,9 @@
       <c r="B15" t="s">
         <v>38</v>
       </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -815,237 +863,327 @@
       <c r="B16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>75</v>
       </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>72</v>
       </c>
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>83</v>
       </c>
-      <c r="B39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>85</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="D44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>87</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" t="s">
-        <v>68</v>
+      <c r="D45" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/templates/classes/Range.xlsx
+++ b/templates/classes/Range.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coden\Python\text-to-speech\TTS-Radio\templates\classes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coden\Python\text-to-speech\TTS-Radio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80286643-6664-492A-903A-0A8D878972A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE2224D-4605-4B46-90C5-AC680C51A7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30972" yWindow="1128" windowWidth="28020" windowHeight="13548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31056" yWindow="2100" windowWidth="29784" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>IR-Decimal</t>
   </si>
   <si>
-    <t>You entered a bombing range. For hit accessment contact the range contron on</t>
-  </si>
-  <si>
     <t>IR-EnterRange</t>
   </si>
   <si>
@@ -307,6 +304,9 @@
   </si>
   <si>
     <t>RC-ExcellentPass</t>
+  </si>
+  <si>
+    <t>You entered a bombing range. For hit assessment contact the range control on</t>
   </si>
 </sst>
 </file>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -696,10 +696,10 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -710,7 +710,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -721,7 +721,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -732,7 +732,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -743,7 +743,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -754,7 +754,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -765,7 +765,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -776,7 +776,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -787,7 +787,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -798,7 +798,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -809,7 +809,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -820,40 +820,40 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -861,10 +861,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -872,10 +872,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -883,10 +883,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -894,10 +894,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -905,10 +905,10 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -916,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -927,10 +927,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -938,10 +938,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -949,10 +949,10 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -960,230 +960,230 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
